--- a/os.xlsx
+++ b/os.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26330"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9B0B585-A06A-4032-B612-563E4F19E93B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{94F26F0A-5B0C-492F-8534-8DD95F412D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
